--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Vip</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.360135</v>
+      </c>
+      <c r="H2">
+        <v>0.72027</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.38698</v>
-      </c>
-      <c r="H2">
-        <v>2.77396</v>
-      </c>
-      <c r="I2">
-        <v>0.5967131687073423</v>
-      </c>
-      <c r="J2">
-        <v>0.4965808999056411</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.100211</v>
+        <v>1.2878685</v>
       </c>
       <c r="N2">
-        <v>0.200422</v>
+        <v>2.575737</v>
       </c>
       <c r="O2">
-        <v>0.01587220340208096</v>
+        <v>0.1604110288030305</v>
       </c>
       <c r="P2">
-        <v>0.01193595905534038</v>
+        <v>0.128507340109894</v>
       </c>
       <c r="Q2">
-        <v>0.13899065278</v>
+        <v>0.4638065222475</v>
       </c>
       <c r="R2">
-        <v>0.5559626111199999</v>
+        <v>1.85522608899</v>
       </c>
       <c r="S2">
-        <v>0.009471152786423185</v>
+        <v>0.1604110288030305</v>
       </c>
       <c r="T2">
-        <v>0.005927169288937813</v>
+        <v>0.128507340109894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.38698</v>
+        <v>0.360135</v>
       </c>
       <c r="H3">
-        <v>2.77396</v>
+        <v>0.72027</v>
       </c>
       <c r="I3">
-        <v>0.5967131687073423</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4965808999056411</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>11.959183</v>
       </c>
       <c r="O3">
-        <v>0.6313963706536166</v>
+        <v>0.4965271036791186</v>
       </c>
       <c r="P3">
-        <v>0.7122188114245082</v>
+        <v>0.5966613816618165</v>
       </c>
       <c r="Q3">
-        <v>5.529049212446666</v>
+        <v>1.435640123235</v>
       </c>
       <c r="R3">
-        <v>33.17429527468</v>
+        <v>8.61384073941</v>
       </c>
       <c r="S3">
-        <v>0.3767625290430351</v>
+        <v>0.4965271036791186</v>
       </c>
       <c r="T3">
-        <v>0.3536742583069084</v>
+        <v>0.5966613816618165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.38698</v>
+        <v>0.360135</v>
       </c>
       <c r="H4">
-        <v>2.77396</v>
+        <v>0.72027</v>
       </c>
       <c r="I4">
-        <v>0.5967131687073423</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4965808999056411</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,338 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.0491925</v>
+        <v>2.7542905</v>
       </c>
       <c r="N4">
-        <v>4.098385</v>
+        <v>5.508581</v>
       </c>
       <c r="O4">
-        <v>0.3245671649820756</v>
+        <v>0.3430618675178508</v>
       </c>
       <c r="P4">
-        <v>0.2440757778737923</v>
+        <v>0.2748312782282896</v>
       </c>
       <c r="Q4">
-        <v>2.842189013649999</v>
+        <v>0.9919164092174999</v>
       </c>
       <c r="R4">
-        <v>11.3687560546</v>
+        <v>3.96766563687</v>
       </c>
       <c r="S4">
-        <v>0.1936735014748131</v>
+        <v>0.3430618675178508</v>
       </c>
       <c r="T4">
-        <v>0.1212033694217371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.38698</v>
-      </c>
-      <c r="H5">
-        <v>2.77396</v>
-      </c>
-      <c r="I5">
-        <v>0.5967131687073423</v>
-      </c>
-      <c r="J5">
-        <v>0.4965808999056411</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1778183333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.533455</v>
-      </c>
-      <c r="O5">
-        <v>0.02816426096222669</v>
-      </c>
-      <c r="P5">
-        <v>0.03176945164635921</v>
-      </c>
-      <c r="Q5">
-        <v>0.2466304719666666</v>
-      </c>
-      <c r="R5">
-        <v>1.4797828318</v>
-      </c>
-      <c r="S5">
-        <v>0.01680598540307079</v>
-      </c>
-      <c r="T5">
-        <v>0.0157761028880578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H6">
-        <v>2.812159</v>
-      </c>
-      <c r="I6">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J6">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>0.100211</v>
-      </c>
-      <c r="N6">
-        <v>0.200422</v>
-      </c>
-      <c r="O6">
-        <v>0.01587220340208096</v>
-      </c>
-      <c r="P6">
-        <v>0.01193595905534038</v>
-      </c>
-      <c r="Q6">
-        <v>0.09393642184966668</v>
-      </c>
-      <c r="R6">
-        <v>0.563618531098</v>
-      </c>
-      <c r="S6">
-        <v>0.006401050615657771</v>
-      </c>
-      <c r="T6">
-        <v>0.00600878976640257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H7">
-        <v>2.812159</v>
-      </c>
-      <c r="I7">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J7">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.986394333333333</v>
-      </c>
-      <c r="N7">
-        <v>11.959183</v>
-      </c>
-      <c r="O7">
-        <v>0.6313963706536166</v>
-      </c>
-      <c r="P7">
-        <v>0.7122188114245082</v>
-      </c>
-      <c r="Q7">
-        <v>3.736791567344111</v>
-      </c>
-      <c r="R7">
-        <v>33.631124106097</v>
-      </c>
-      <c r="S7">
-        <v>0.2546338416105815</v>
-      </c>
-      <c r="T7">
-        <v>0.3585445531175999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H8">
-        <v>2.812159</v>
-      </c>
-      <c r="I8">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J8">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.0491925</v>
-      </c>
-      <c r="N8">
-        <v>4.098385</v>
-      </c>
-      <c r="O8">
-        <v>0.3245671649820756</v>
-      </c>
-      <c r="P8">
-        <v>0.2440757778737923</v>
-      </c>
-      <c r="Q8">
-        <v>1.920885043869167</v>
-      </c>
-      <c r="R8">
-        <v>11.525310263215</v>
-      </c>
-      <c r="S8">
-        <v>0.1308936635072625</v>
-      </c>
-      <c r="T8">
-        <v>0.1228724084520551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H9">
-        <v>2.812159</v>
-      </c>
-      <c r="I9">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J9">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1778183333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.533455</v>
-      </c>
-      <c r="O9">
-        <v>0.02816426096222669</v>
-      </c>
-      <c r="P9">
-        <v>0.03176945164635921</v>
-      </c>
-      <c r="Q9">
-        <v>0.1666844754827778</v>
-      </c>
-      <c r="R9">
-        <v>1.500160279345</v>
-      </c>
-      <c r="S9">
-        <v>0.0113582755591559</v>
-      </c>
-      <c r="T9">
-        <v>0.0159933487583014</v>
+        <v>0.2748312782282896</v>
       </c>
     </row>
   </sheetData>
